--- a/firebase_data_spyFOC.xlsx
+++ b/firebase_data_spyFOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E593"/>
+  <dimension ref="A1:E594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10513,11 +10513,28 @@
       <c r="B593" s="2" t="n">
         <v>45763.47916666666</v>
       </c>
-      <c r="C593" t="inlineStr"/>
+      <c r="C593" t="n">
+        <v>0</v>
+      </c>
       <c r="D593" t="n">
         <v>1</v>
       </c>
-      <c r="E593" t="inlineStr"/>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>45764.47916666666</v>
+      </c>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="n">
+        <v>1</v>
+      </c>
+      <c r="E594" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyFOC.xlsx
+++ b/firebase_data_spyFOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E594"/>
+  <dimension ref="A1:E597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10530,11 +10530,62 @@
       <c r="B594" s="2" t="n">
         <v>45764.47916666666</v>
       </c>
-      <c r="C594" t="inlineStr"/>
+      <c r="C594" t="n">
+        <v>0</v>
+      </c>
       <c r="D594" t="n">
         <v>1</v>
       </c>
-      <c r="E594" t="inlineStr"/>
+      <c r="E594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>45769.47916666666</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1</v>
+      </c>
+      <c r="E596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>45770.47916666666</v>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="n">
+        <v>1</v>
+      </c>
+      <c r="E597" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyFOC.xlsx
+++ b/firebase_data_spyFOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E597"/>
+  <dimension ref="A1:E599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10581,11 +10581,45 @@
       <c r="B597" s="2" t="n">
         <v>45770.47916666666</v>
       </c>
-      <c r="C597" t="inlineStr"/>
+      <c r="C597" t="n">
+        <v>0</v>
+      </c>
       <c r="D597" t="n">
         <v>1</v>
       </c>
-      <c r="E597" t="inlineStr"/>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>45771.47916666666</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1</v>
+      </c>
+      <c r="E598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="n">
+        <v>1</v>
+      </c>
+      <c r="E599" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyFOC.xlsx
+++ b/firebase_data_spyFOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E599"/>
+  <dimension ref="A1:E602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10615,11 +10615,62 @@
       <c r="B599" s="2" t="n">
         <v>45772.47916666666</v>
       </c>
-      <c r="C599" t="inlineStr"/>
+      <c r="C599" t="n">
+        <v>1</v>
+      </c>
       <c r="D599" t="n">
         <v>1</v>
       </c>
-      <c r="E599" t="inlineStr"/>
+      <c r="E599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>45776.47916666666</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1</v>
+      </c>
+      <c r="E601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>45777.47916666666</v>
+      </c>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="n">
+        <v>1</v>
+      </c>
+      <c r="E602" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyFOC.xlsx
+++ b/firebase_data_spyFOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E602"/>
+  <dimension ref="A1:E604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10666,11 +10666,45 @@
       <c r="B602" s="2" t="n">
         <v>45777.47916666666</v>
       </c>
-      <c r="C602" t="inlineStr"/>
+      <c r="C602" t="n">
+        <v>1</v>
+      </c>
       <c r="D602" t="n">
         <v>1</v>
       </c>
-      <c r="E602" t="inlineStr"/>
+      <c r="E602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>45778.47916666666</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0</v>
+      </c>
+      <c r="D603" t="n">
+        <v>1</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
+      <c r="E604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
